--- a/teaching/traditional_assets/database/data/bangladesh/bangladesh_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/bangladesh/bangladesh_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0765</v>
+        <v>0.038</v>
       </c>
       <c r="E2">
-        <v>0.0663</v>
+        <v>0.101465</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>75.14</v>
+        <v>42.65</v>
       </c>
       <c r="L2">
-        <v>0.2151590642270137</v>
+        <v>0.2159165696349921</v>
       </c>
       <c r="M2">
-        <v>6.995400000000001</v>
+        <v>6.26</v>
       </c>
       <c r="N2">
-        <v>0.01341657077100115</v>
+        <v>0.02143835616438356</v>
       </c>
       <c r="O2">
-        <v>0.09309821666223052</v>
+        <v>0.1467760844079719</v>
       </c>
       <c r="P2">
-        <v>6.995400000000001</v>
+        <v>6.26</v>
       </c>
       <c r="Q2">
-        <v>0.01341657077100115</v>
+        <v>0.02143835616438356</v>
       </c>
       <c r="R2">
-        <v>0.09309821666223052</v>
+        <v>0.1467760844079719</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>481.4</v>
+        <v>261.4</v>
       </c>
       <c r="V2">
-        <v>0.9232834675872651</v>
+        <v>0.8952054794520548</v>
       </c>
       <c r="W2">
-        <v>0.1038528208751329</v>
+        <v>0.08157467532467533</v>
       </c>
       <c r="X2">
-        <v>0.136384418715518</v>
+        <v>0.1540863480672363</v>
       </c>
       <c r="Y2">
-        <v>-0.03253159784038509</v>
+        <v>-0.07251167274256096</v>
       </c>
       <c r="Z2">
-        <v>0.2707776046149194</v>
+        <v>0.2223560533573479</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.07539266698710764</v>
+        <v>0.06729965706867423</v>
       </c>
       <c r="AC2">
-        <v>-0.07539266698710764</v>
+        <v>-0.06729965706867423</v>
       </c>
       <c r="AD2">
-        <v>1317.9</v>
+        <v>850.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1317.9</v>
+        <v>850.8</v>
       </c>
       <c r="AG2">
-        <v>836.5000000000001</v>
+        <v>589.4</v>
       </c>
       <c r="AH2">
-        <v>0.7165225901158049</v>
+        <v>0.7444872243612181</v>
       </c>
       <c r="AI2">
-        <v>0.6918836623267535</v>
+        <v>0.723715549506635</v>
       </c>
       <c r="AJ2">
-        <v>0.6160247440901392</v>
+        <v>0.6687088722486952</v>
       </c>
       <c r="AK2">
-        <v>0.5876773921596179</v>
+        <v>0.6447166921898927</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bank Asia Limited (DSE:BANKASIA)</t>
+          <t>Mercantile Bank Limited (DSE:MERCANBANK)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.08839999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="E3">
-        <v>0.122</v>
+        <v>0.197</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>29.4</v>
+        <v>20.1</v>
       </c>
       <c r="L3">
-        <v>0.2106017191977077</v>
+        <v>0.2007992007992008</v>
       </c>
       <c r="M3">
-        <v>6.995400000000001</v>
+        <v>4.89</v>
       </c>
       <c r="N3">
-        <v>0.02799279711884754</v>
+        <v>0.03315254237288135</v>
       </c>
       <c r="O3">
-        <v>0.2379387755102041</v>
+        <v>0.2432835820895522</v>
       </c>
       <c r="P3">
-        <v>6.995400000000001</v>
+        <v>4.89</v>
       </c>
       <c r="Q3">
-        <v>0.02799279711884754</v>
+        <v>0.03315254237288135</v>
       </c>
       <c r="R3">
-        <v>0.2379387755102041</v>
+        <v>0.2432835820895522</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>268.4</v>
+        <v>128.6</v>
       </c>
       <c r="V3">
-        <v>1.074029611844738</v>
+        <v>0.8718644067796609</v>
       </c>
       <c r="W3">
-        <v>0.1073384446878423</v>
+        <v>0.08157467532467533</v>
       </c>
       <c r="X3">
-        <v>0.1220590324936379</v>
+        <v>0.1540863480672363</v>
       </c>
       <c r="Y3">
-        <v>-0.01472058780579566</v>
+        <v>-0.07251167274256096</v>
       </c>
       <c r="Z3">
-        <v>0.367949393779652</v>
+        <v>0.1809145129224652</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.07443826418140437</v>
+        <v>0.06714149401387635</v>
       </c>
       <c r="AC3">
-        <v>-0.07443826418140437</v>
+        <v>-0.06714149401387635</v>
       </c>
       <c r="AD3">
-        <v>509.3</v>
+        <v>444</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>509.3</v>
+        <v>444</v>
       </c>
       <c r="AG3">
-        <v>240.9</v>
+        <v>315.4</v>
       </c>
       <c r="AH3">
-        <v>0.6708377239199157</v>
+        <v>0.7506339814032121</v>
       </c>
       <c r="AI3">
-        <v>0.6336941644892372</v>
+        <v>0.6279168434450573</v>
       </c>
       <c r="AJ3">
-        <v>0.4908312958435208</v>
+        <v>0.6813566645063729</v>
       </c>
       <c r="AK3">
-        <v>0.4500280216700916</v>
+        <v>0.5452031114952463</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ICB Islamic Bank Limited (DSE:ICBIBANK)</t>
+          <t>ONE Bank Limited (DSE:ONEBANKLTD)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -834,6 +834,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.038</v>
+      </c>
+      <c r="E4">
+        <v>0.00593</v>
+      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -847,82 +853,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>-5.36</v>
+        <v>24.9</v>
       </c>
       <c r="L4">
-        <v>-41.23076923076923</v>
+        <v>0.2615546218487395</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>1.37</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.01236462093862816</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.05502008032128515</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>1.37</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.01236462093862816</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.05502008032128515</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>8.1</v>
+        <v>119.3</v>
       </c>
       <c r="V4">
-        <v>0.3446808510638298</v>
+        <v>1.076714801444043</v>
       </c>
       <c r="W4">
-        <v>0.04155038759689923</v>
+        <v>0.1394957983193277</v>
       </c>
       <c r="X4">
-        <v>0.1345312178238975</v>
+        <v>0.1590122056543773</v>
       </c>
       <c r="Y4">
-        <v>-0.0929808302269983</v>
+        <v>-0.01951640733504956</v>
       </c>
       <c r="Z4">
-        <v>-0.001667307938950879</v>
+        <v>0.2278602202010532</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07528548840946123</v>
+        <v>0.06729965706867423</v>
       </c>
       <c r="AC4">
-        <v>-0.07528548840946123</v>
+        <v>-0.06729965706867423</v>
       </c>
       <c r="AD4">
-        <v>57.5</v>
+        <v>349.9</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>57.5</v>
+        <v>349.9</v>
       </c>
       <c r="AG4">
-        <v>49.4</v>
+        <v>230.6</v>
       </c>
       <c r="AH4">
-        <v>0.7098765432098766</v>
+        <v>0.7594964184935967</v>
       </c>
       <c r="AI4">
-        <v>-0.7575757575757576</v>
+        <v>0.6385036496350365</v>
       </c>
       <c r="AJ4">
-        <v>0.6776406035665294</v>
+        <v>0.6754540128881077</v>
       </c>
       <c r="AK4">
-        <v>-0.5880952380952381</v>
+        <v>0.5379052950781432</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -939,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mercantile Bank Limited (DSE:MERCANBANK)</t>
+          <t>ICB Islamic Bank Limited (DSE:ICBIBANK)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -948,10 +957,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0765</v>
-      </c>
-      <c r="E5">
-        <v>0.0663</v>
+        <v>-0.157</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -966,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>34.7</v>
+        <v>-2.35</v>
       </c>
       <c r="L5">
-        <v>0.2762738853503185</v>
+        <v>-1.053811659192825</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -978,7 +984,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -987,185 +993,66 @@
         <v>-0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>13.5</v>
+      </c>
+      <c r="V5">
+        <v>0.400593471810089</v>
+      </c>
+      <c r="W5">
+        <v>0.01781652767247915</v>
+      </c>
+      <c r="X5">
+        <v>0.1100273862668516</v>
+      </c>
+      <c r="Y5">
+        <v>-0.09221085859437242</v>
+      </c>
+      <c r="Z5">
+        <v>-0.02694864048338369</v>
+      </c>
+      <c r="AA5">
         <v>-0</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>67.3</v>
-      </c>
-      <c r="V5">
-        <v>0.4619080301990391</v>
-      </c>
-      <c r="W5">
-        <v>0.1622253389434315</v>
-      </c>
-      <c r="X5">
-        <v>0.1382376196071384</v>
-      </c>
-      <c r="Y5">
-        <v>0.0239877193362931</v>
-      </c>
-      <c r="Z5">
-        <v>0.2347224817791067</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
       <c r="AB5">
-        <v>0.07549984556475405</v>
+        <v>0.06806231777007828</v>
       </c>
       <c r="AC5">
-        <v>-0.07549984556475405</v>
+        <v>-0.06806231777007828</v>
       </c>
       <c r="AD5">
-        <v>374.2</v>
+        <v>56.9</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>374.2</v>
+        <v>56.9</v>
       </c>
       <c r="AG5">
-        <v>306.9</v>
+        <v>43.4</v>
       </c>
       <c r="AH5">
-        <v>0.7197537988074629</v>
+        <v>0.6280353200883002</v>
       </c>
       <c r="AI5">
-        <v>0.6023824855119123</v>
+        <v>-0.7157232704402515</v>
       </c>
       <c r="AJ5">
-        <v>0.678082191780822</v>
+        <v>0.562905317769131</v>
       </c>
       <c r="AK5">
-        <v>0.5540711319732804</v>
+        <v>-0.4666666666666667</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ONE Bank Limited (DSE:ONEBANKLTD)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Banks (Regional)</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>0.0246</v>
-      </c>
-      <c r="E6">
-        <v>-0.0363</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>16.4</v>
-      </c>
-      <c r="L6">
-        <v>0.1954707985697258</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>-0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>-0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>137.6</v>
-      </c>
-      <c r="V6">
-        <v>1.345063538611926</v>
-      </c>
-      <c r="W6">
-        <v>0.1003671970624235</v>
-      </c>
-      <c r="X6">
-        <v>0.1722856251684049</v>
-      </c>
-      <c r="Y6">
-        <v>-0.07191842810598144</v>
-      </c>
-      <c r="Z6">
-        <v>0.1851279788172992</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0.07694879472314427</v>
-      </c>
-      <c r="AC6">
-        <v>-0.07694879472314427</v>
-      </c>
-      <c r="AD6">
-        <v>376.9</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>376.9</v>
-      </c>
-      <c r="AG6">
-        <v>239.3</v>
-      </c>
-      <c r="AH6">
-        <v>0.7865191986644408</v>
-      </c>
-      <c r="AI6">
-        <v>0.6781216264843469</v>
-      </c>
-      <c r="AJ6">
-        <v>0.7005269320843092</v>
-      </c>
-      <c r="AK6">
-        <v>0.5722142515542802</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
         <v>0</v>
       </c>
     </row>
